--- a/update_data/data/bank_psbc/dialogue/引导流程.xlsx
+++ b/update_data/data/bank_psbc/dialogue/引导流程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="9600" windowHeight="11745"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20670" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="邮储APP下载注册流程" sheetId="7" r:id="rId1"/>
@@ -72,7 +72,47 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>怎么登录或注册？/登录怎么弄？/怎么注册？/新用户怎么注册/怎么登录？/登录注册需要什么？/我怎么登录注册？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/APP怎么登录/软件怎么登/怎么登录或注册？/请问怎么登录/请问在哪里登录呢/软件怎么进去啊/怎么登录或注册？/登录怎么弄？/怎么注册？/怎么登录？/登录注册需要什么？/我怎么登录注册？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/还要注册啊，这个怎么办？/注册咋整/你能告诉我怎么登录吗/你能教我怎么登录注册吗/在哪里登录呀/登录的地方在哪？/是不是要先注册呀/点哪里注册登录呀/怎么找不到登录的地方/怎么登录或注册？/怎么登啊/注册怎么注册？/注册在哪注册的/怎么注册账号啊/在哪注册账号/怎么登录或注册？/登录怎么弄？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/接下来怎么登啊？/注册需要啥？/这个软件要怎么登录啊？/登录需要啥？/要怎么注册呢？/我怎么登录注册？在哪儿登录啊/在哪儿注册啊？/我想注册个账号，怎么办/我想登录我的账号，在哪儿登啊？/你能教我怎么注册么？/你能教我怎么登录么？/怎么登录或注册？/登录怎么弄？/怎么登录？/登录注册需要什么？/我怎么登录注册？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/如何登录/如何注册/怎么登录手机银行APP/怎么注册手机银行APP/怎么用呢/还没登录呢/还没登录成功呢/怎么登录呀/手机银行APP怎么登/怎么登录手机银行APP/怎么注册？/注册怎么弄？/新用户怎么注册/注册需要什么？/我怎么注册？/注册怎么办？/怎么才能完成注册呢？/注册邮储手机银行怎么办？/APP怎么注册/软件怎么注册/怎么注册？/请问怎么注册/请问在哪里注册呢/软件怎么进去啊/还要注册啊，这个怎么办？/注册咋整/你能告诉我怎么注册吗/你能教我怎么注册注册吗/在哪里注册呀/注册的地方在哪？/是不是要先注册呀/点哪里注册注册呀/怎么找不到注册的地方/在哪注册的/怎么注册账号啊/在哪注册账号/接下来怎么注册啊？/注册需要啥？/这个软件要怎么注册啊？/注册需要啥？/要怎么注册呢？/在哪儿注册啊/在哪儿注册啊？/我想注册个账号，怎么办/我想注册我的账号，在哪儿注册啊？/你能教我怎么注册么？/你能教我怎么注册么？/如何注册/如何注册/怎么注册邮储手机银行/怎么注册邮储手机银行/怎么用呢/还没注册呢/还没注册成功呢/怎么注册呀/邮储手机银行怎么注册/怎么注册邮储手机银行/如何注册//快教教我怎么注册/怎么才能注册啊/注册的步骤是什么/注册需要准备什么吗/注册需要什么东西/在哪里可以注册/我想注册怎么弄/告诉我怎么注册/问你一个问题，这个怎么注册/你知道怎么注册吗</t>
+    <t>表情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请打开邮储银行APP，点击右上角我的，再点击左下角线上注册，根据提示就可以完成注册和登录，最后要记得修改密码激活。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请打开邮储银行APP，点击右上角我的，再点击左下角线上注册，根据提示就可以完成注册和登录，最后要记得修改密码激活。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么激活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮储</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活APP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请您到柜台办理激活。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么激活APP/APP怎么激活的啊/APP怎么激活/怎么激活的/这个APP是怎么激活的/你知道怎么激活这个APP的吗我想激活这个app/激活这个app该怎么办/怎么才能激活这个app/你知道这个app是怎么激活的吗/你能告诉我怎么激活这个app的吗/你可以跟我说说这个app的激活方法吗/告诉我这个app是怎么激活的吧/我要激活这个app/我要激活app/我是来激活app的/我来这里是激活app的/激活app/跟我讲一下app怎么激活的吧/跟我说一下这个app要怎样才能激活/app要怎样才能激活/怎样才能激活app/这个app要怎样才可以激活/你知道怎样才可以激活这个app吗/怎样才可以激活这个app/我想激活这个app/我来激活这个app的/激活app要怎么做/怎么做才能激活这个app/你知道怎样才能激活app吗/你可以告诉我怎样才可以激活这个app吗/你知道怎么做才能激活这个app吗/激活手机银行的app/我要激活手机银行app/我怎样才能激活手机银行app/激活手机银行app要怎么做/我是来激活手机银行app的/我想激活邮储手机银行app/我是来激活邮储手机银行app的/你知道怎样才能激活邮储手机银行app吗/邮储手机银行app是怎样激活的/你能告诉我怎样才能激活邮储手机银行的app吗/激活邮储手机银行app/我想激活邮储手机银行app/我是来激活邮储手机银行app的/怎么才能激活邮储手机银行app/你能告诉我怎样才能激活邮储手机银行app吗/你知道怎样激活邮储手机银行app的吗/邮储手机银行app是怎么激活的啊/激活邮储手机银行app怎么做/怎么才能激活邮储手机银行app/我来激活邮储手机银行的/激活邮储手机银行/怎么激活邮储手机银行/邮储手机银行怎么激活的/激活邮储手机银行怎么做/怎样激活邮储手机银行/我想激活邮储手机银行app</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -85,7 +125,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>我已经下载好了/下载完成/打开APP了/然后呢？/接下来呢？/下载好了/我下载过了/我已经下载过了/下载好了怎么办？/我要怎么注册啊？/下载好了就行了吗？/在哪注册啊？/要注册吗？/注册/怎么用啊？/</t>
+      <t>我已经下载好了/下载完成/打开APP了/然后呢？/接下来呢？/下载好了/我下载过了/我已经下载过了/下载好了怎么办？/我要怎么注册啊？/下载好了就行了吗？/在哪注册啊？/注册/怎么用啊？/</t>
     </r>
     <r>
       <rPr>
@@ -95,7 +135,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>下载完成/完成下载了/我下载好了/下载好了，然后呢/下载完成了接下来做什么呢/下载好了接下来做什么呢/好了/OK了/完成啦/完事了/搞定/然后呢/接下来呢/弄好了/接下来怎么做/下好了/安装好了/装完了/成功了/可以了/弄好了/接下来怎么弄/了事了/做好了/下载完成/下载好了/下载好了怎么搞/怎么登录/怎么登录/下载完成/完成下载了/我下载好了/下载好了，然后呢/下载完成了接下来做什么呢/下载好了接下来做什么呢/下载完成/完成下载了/我下载好了/下载好了，然后呢/下载完成了接下来做什么呢/下载好了接下来做什么呢/装好了，接下来呢/装好了，接下来干嘛呢/我下完了已经/下载完成/完成下载了/我下载好了/下载好了，然后呢/下载完成了接下来做什么呢/下载好了接下来做什么呢/下载完毕然后呢/下载完毕，接下来呢/OK，接下来怎么弄？/下完了，直接安装吗/安装好了，然后/下载完成/完成下载了/我下载好了/下载好了，然后呢/下载完成了接下来做什么呢/下载好了接下来做什么呢/已经下载好了/你看下已经好了/好了好了然后呢/请问接下去怎么操作/下载成功，接下去怎么做/下载完成/完成下载了/我下载好了/下载好了，然后呢/下载完成了接下来做什么呢/下载好了接下来做什么呢/弄好了/好了/下好了，下一步呢/下好了之后呢/我下载完了/装好了，然后呢/我弄好了/弄好了，接下来怎么弄/下载完成/完成下载了/我下载好了/下载好了，然后呢/下载完成了接下来做什么呢/下载好了接下来做什么呢/我下好啦，接下来干嘛？/按你说的下好啦，然后呢？/下载完成啦，接着还需要干嘛？/软件装好啦，接着要干嘛？/装好啦，还要干嘛？/APP我装好啦，然后呢？/可以啦，然后呢？/可以啦，接着呢？/可以啦，接下来还要干嘛？/软件我都装好啦，还需要干啥？/装好咯，还有啥要做的？/APP装完啦，接着要干嘛？/下载完成/完成下载了/我下载好了/下载好了，然后呢/下载完成了接下来做什么呢/下载好了接下来做什么呢/下载结束了/下载结束，然后怎么办/下载结束了，然后我要做什么？/我已经下载完成了/我已经下载好了，但是不知道接下来该做什么/下载完成/完成下载了/我下载好了/下载好了，然后呢/下载完成了接下来做什么呢/下载好了接下来做什么呢/下载好了做什么/已经下载了/已经下载好了/下载好了要干嘛/下载成功了/</t>
+      <t>下载完成/完成下载了/我下载好了/下载好了，然后呢/下载完成了接下来做什么呢/下载好了接下来做什么呢/好了/OK了/完成啦/完事了/搞定/然后呢/接下来呢/弄好了/接下来怎么做/下好了/安装好了/装完了/成功了/可以了/弄好了/接下来怎么弄/了事了/做好了/下载完成/下载好了/下载好了怎么搞/怎么登录/怎么登录/下载完成/完成下载了/我下载好了/下载好了，然后呢/下载完成了接下来做什么呢/下载好了接下来做什么呢/下载完成/完成下载了/我下载好了/下载好了，然后呢/下载完成了接下来做什么呢/下载好了接下来做什么呢/装好了，接下来呢/我下完了已经/下载完成/完成下载了/我下载好了/下载好了，然后呢/下载完成了接下来做什么呢/下载好了接下来做什么呢/下载完毕然后呢/下载完毕，接下来呢/OK，接下来怎么弄？/下完了，直接安装吗/安装好了，然后/下载完成/完成下载了/我下载好了/下载好了，然后呢/下载完成了接下来做什么呢/下载好了接下来做什么呢/已经下载好了/你看下已经好了/好了好了然后呢/请问接下去怎么操作/下载成功，接下去怎么做/下载完成/完成下载了/我下载好了/下载好了，然后呢/下载完成了接下来做什么呢/下载好了接下来做什么呢/弄好了/好了/下好了，下一步呢/下好了之后呢/我下载完了/装好了，然后呢/我弄好了/弄好了，接下来怎么弄/下载完成/完成下载了/我下载好了/下载好了，然后呢/下载完成了接下来做什么呢/下载好了接下来做什么呢/我下好啦，接下来干嘛？/按你说的下好啦，然后呢？/下载完成啦，接着还需要干嘛？/软件装好啦，接着要干嘛？/装好啦，还要干嘛？/APP我装好啦，然后呢？/可以啦，然后呢？/可以啦，接着呢？/软件我都装好啦，还需要干啥？/装好咯，还有啥要做的？/APP装完啦，接着要干嘛？/下载完成/完成下载了/我下载好了/下载好了，然后呢/下载完成了接下来做什么呢/下载好了接下来做什么呢/下载结束了/下载结束，然后怎么办/下载结束了，然后我要做什么？/我已经下载完成了/我已经下载好了，但是不知道接下来该做什么/下载完成/完成下载了/我下载好了/下载好了，然后呢/下载完成了接下来做什么呢/已经下载了/已经下载好了/下载好了要干嘛/下载成功了/</t>
     </r>
     <r>
       <rPr>
@@ -106,77 +146,36 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>好了/可以了/搞定了/完成了/弄好了/弄完了/可以了，然后呢/搞好了/我弄完了，然后呢/搞定了，然后怎么办/完成了，然后干嘛/OK了/成功了/好啦/搞定了/妥了/没问题了/下载成功，下一步呢/下载好了，下一步呢？/下载成功，下一步做什么？/怎么登录或注册？/登录怎么弄？/怎么注册？/新用户怎么注册/怎么登录？/登录注册需要什么？/我怎么登录注册？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/APP怎么登录/软件怎么登/怎么登录或注册？/请问怎么登录/请问在哪里登录呢/软件怎么进去啊/怎么登录或注册？/登录怎么弄？/怎么注册？/怎么登录？/登录注册需要什么？/我怎么登录注册？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/还要注册啊，这个怎么办？/注册咋整/你能告诉我怎么登录吗/你能教我怎么登录注册吗/在哪里登录呀/登录的地方在哪？/是不是要先注册呀/点哪里注册登录呀/怎么找不到登录的地方/怎么登录或注册？/怎么登啊/注册怎么注册？/注册在哪注册的/怎么注册账号啊/在哪注册账号/怎么登录或注册？/登录怎么弄？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/接下来怎么登啊？/注册需要啥？/这个软件要怎么登录啊？/登录需要啥？/要怎么注册呢？/我怎么登录注册？在哪儿登录啊/在哪儿注册啊？/我想注册个账号，怎么办/我想登录我的账号，在哪儿登啊？/你能教我怎么注册么？/你能教我怎么登录么？/怎么登录或注册？/登录怎么弄？/怎么登录？/登录注册需要什么？/我怎么登录注册？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/如何登录/如何注册/怎么登录手机银行APP/怎么注册手机银行APP/怎么用呢/还没登录呢/还没登录成功呢/怎么登录呀/手机银行APP怎么登/怎么登录手机银行APP/怎么注册？/注册怎么弄？/新用户怎么注册/注册需要什么？/我怎么注册？/注册怎么办？/怎么才能完成注册呢？/注册邮储手机银行怎么办？/APP怎么注册/软件怎么注册/怎么注册？/请问怎么注册/请问在哪里注册呢/软件怎么进去啊/还要注册啊，这个怎么办？/注册咋整/你能告诉我怎么注册吗/你能教我怎么注册注册吗/在哪里注册呀/注册的地方在哪？/是不是要先注册呀/点哪里注册注册呀/怎么找不到注册的地方/在哪注册的/怎么注册账号啊/在哪注册账号/接下来怎么注册啊？/注册需要啥？/这个软件要怎么注册啊？/注册需要啥？/要怎么注册呢？/在哪儿注册啊/在哪儿注册啊？/我想注册个账号，怎么办/我想注册我的账号，在哪儿注册啊？/你能教我怎么注册么？/你能教我怎么注册么？/如何注册/如何注册/怎么注册邮储手机银行/怎么注册邮储手机银行/怎么用呢/还没注册呢/还没注册成功呢/怎么注册呀/邮储手机银行怎么注册/怎么注册邮储手机银行/如何注册//快教教我怎么注册/怎么才能注册啊/注册的步骤是什么/注册需要准备什么吗/注册需要什么东西/在哪里可以注册/我想注册怎么弄/告诉我怎么注册/问你一个问题，这个怎么注册/你知道怎么注册吗</t>
+      <t>好了/可以了/搞定了/完成了/弄好了/弄完了/可以了，然后呢/搞好了/我弄完了，然后呢/搞定了，然后怎么办/完成了，然后干嘛/OK了/成功了/好啦/搞定了/妥了/没问题了/下载成功，下一步呢/下载好了，下一步呢？/下载成功，下一步做什么？/怎么登录或注册？/登录怎么弄？/怎么注册？/新用户怎么注册/怎么登录？/登录注册需要什么？/我怎么登录注册？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/APP怎么登录/软件怎么登/怎么登录或注册？/请问怎么登录/请问在哪里登录呢/软件怎么进去啊/怎么登录或注册？/登录怎么弄？/怎么注册？/怎么登录？/登录注册需要什么？/我怎么登录注册？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/还要注册啊，这个怎么办？/注册咋整/你能告诉我怎么登录吗/你能教我怎么登录注册吗/在哪里登录呀/登录的地方在哪？/是不是要先注册呀/点哪里注册登录呀/怎么找不到登录的地方/怎么登录或注册？/怎么登啊/注册怎么注册？/注册在哪注册的/怎么注册账号啊/在哪注册账号/怎么登录或注册？/登录怎么弄？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/接下来怎么登啊？/注册需要啥？/这个软件要怎么登录啊？/登录需要啥？/要怎么注册呢？/我怎么登录注册？在哪儿登录啊/在哪儿注册啊？/我想注册个账号，怎么办/我想登录我的账号，在哪儿登啊？/你能教我怎么注册么？/你能教我怎么登录么？/怎么登录或注册？/登录怎么弄？/怎么登录？/登录注册需要什么？/我怎么登录注册？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/如何登录/如何注册/怎么登录手机银行APP/怎么注册手机银行APP/怎么用呢/还没登录呢/还没登录成功呢/怎么登录呀/手机银行APP怎么登/怎么登录手机银行APP/怎么注册？/注册怎么弄？/新用户怎么注册/注册需要什么？/我怎么注册？/注册怎么办？/怎么才能完成注册呢？/注册邮储手机银行怎么办？/APP怎么注册/软件怎么注册/怎么注册？/请问怎么注册/请问在哪里注册呢/软件怎么进去啊/还要注册啊，这个怎么办？/注册咋整/你能告诉我怎么注册吗/你能教我怎么注册注册吗/在哪里注册呀/注册的地方在哪？/是不是要先注册呀/点哪里注册注册呀/怎么找不到注册的地方/在哪注册的/怎么注册账号啊/在哪注册账号/接下来怎么注册啊？/注册需要啥？/这个软件要怎么注册啊？/注册需要啥？/要怎么注册呢？/在哪儿注册啊/在哪儿注册啊？/我想注册个账号，怎么办/我想注册我的账号，在哪儿注册啊？/你能教我怎么注册么？/你能教我怎么注册么？/如何注册/如何注册/怎么注册邮储手机银行/怎么注册邮储手机银行/怎么用呢/还没注册呢/还没注册成功呢/怎么注册呀/邮储手机银行怎么注册/怎么注册邮储手机银行/如何注册/快教教我怎么注册/怎么才能注册啊/注册需要准备什么吗/注册需要什么东西/在哪里可以注册/我想注册怎么弄/告诉我怎么注册/问你一个问题，这个怎么注册/你知道怎么注册吗</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么下载手机银行/下载手机银行在哪下载？/我要下载手机银行/你们手机银行怎么用？/我要用手机银行需要怎么做？/办手机银行业务/我来办个手机银行/手机银行具体怎么下载/在哪里下载手机银行啊/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/手机银行怎么下载的？/进店要下载APP吗/进店要下载软件吗/苏宁APP怎么下/据说要下载个APP才能进店吗/在哪里下载这个软件啊/怎么下载软件/这个软件怎么下载/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/怎么下载？/手机银行怎么下载的？/要到哪里下载？/在哪里下载手机银行啊/下载地址是啥？/给个下载地址吧/怎么装？/怎么装这个软件？/这个软件怎么装？/怎么下载手机银行的啊/怎么下载？/手机银行怎么下载的？/手机银行咋弄啊/手机银行哪里下载/我要下载手机银行/手机银行咋整/怎么下载手机银行？/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/怎么下载？/手机银行怎么下载的？/这个手机银行怎么操作/帮我下载一个手机银行/手机怎么下载手机银行/手机银行手机上怎么下载呀/怎么下载手机银行？/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/怎么下载？/app哪里下载/没看到app啊/app在哪里/怎么下载这个APP/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/怎么下载？/手机银行怎么下载的？/你们这APP怎么下啊？/先告诉我咋下啊！/在哪里下载？/你得告诉我怎么下吧/我想下载手机银行APP/你们这个APP在哪下呀？/怎么下载APP呢？/你知道怎么下载你们这个APP吗？/要怎么下载手机银行呢？/我想下载，要怎么办？/那我怎么下载你们这个软件呢？/软件在哪下？/要怎么下载这个手机银行呀？/怎么下载APP啊？/怎么下载手机银行？/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/我想下载手机银行/我想下载手机银行，你能教我么？/你能教教我怎么下载手机银行么？/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/下载什么软件/下载手机银行APP/去哪下载手机银行/下载手机银行吗/是下载手机银行吗/我还没有下载APP/我还没有下载软件/我手机里没有手机银行/我已经把APP卸载了/我需要再下载一下/我手机里已经没有这个APP了/这个手机银行要怎么操作/我要下载手机银行/扫了就能下载手机银行了吗/验证后就可以下载吗/手机验证后就可以了吗/如何下载/验证好怎么下载/怎么下载/验证完怎么下载/验证后如何下载/扫码后如何下载/验证完如何下载/在哪下载啊/怎么下啊/app在哪/哪有app/没看到app啊/app呢/哪有手机银行/没看到手机银行啊/下载怎么弄呀/在哪里下载呢/你能教教我在哪里下载吗/你能告诉我在哪里下载吗/你能教教我在哪里下载吗/你来教教我在哪里下载吧/你说说怎么下载/储储你会下载吗/机器人你会下载手机银行吗/手机银行怎么下载/下载手机银行怎么弄/下载手机银行你会吗/下载步骤是什么/有下载步骤吗/手机银行下载步骤/手机银行下载步骤你有吗/说说下载步骤/有下载方式吗/手机银行下载方式/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/我要下载APP/我要下载软件/邮储手机银行APP怎么下/要下载个APP/怎么下载邮储手机银行/在哪里下载这个软件啊/怎么下载软件/这个软件怎么下载/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/要到哪里下载/在哪里下载邮储手机银行啊/下载地址是啥/给个下载地址吧/怎么装/怎么装这个软件/这个软件怎么装/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/邮储手机银行怎么下载的/邮储手机银行咋弄啊/邮储手机银行哪里下载/我要下载邮储手机银行/邮储手机银行咋整/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/这个邮储手机银行手机怎么操作/帮我下载一个邮储手机银行/手机怎么下载邮储手机银行/邮储手机银行手机上怎么下载呀/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/邮储手机银行怎么下载的/app哪里下载/没看到app啊/app在哪里/怎么下载这个APP/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/你们这APP怎么下啊/先告诉我咋下啊！/在哪里下载/你得告诉我怎么下吧/我想下载邮储手机银行APP/你们这个APP在哪下呀/怎么下载APP呢/你知道怎么下载你们这个APP吗/要怎么下载邮储手机银行呢/我想下载，要怎么办/那我怎么下载你们这个软件呢/软件在哪下/要怎么下载这个邮储手机银行呀/怎么下载APP啊/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/我想下载邮储手机银行/我想下载邮储手机银行，你能教我么/你能教教我怎么下载邮储手机银行么/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/下载什么软件/下载邮储手机银行APP/去哪下载邮储手机银行/下载邮储手机银行吗/是下载邮储手机银行吗/我还没有下载APP/我还没有下载软件/我已经把软件卸载了/我手机里没有邮储手机银行/我需要再下载一下/我手机里已经没有这个APP了/下载这个邮储手机银行要怎么操作/我要下载邮储手机银行/在哪儿下载邮储手机银行/在哪里下载/在哪里下载邮储手机银行/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>怎么下载手机银行/手机银行在哪下载？/我要下载手机银行/你们手机银行怎么用？/我要用手机银行需要怎么做？/我是来开通手机银行的/我想开通手机银行/手机银行/开手机银行/办手机银行业务/我来办个手机银行/我想开手机银行/我开手机银行/我要开手机银行/帮我开通手机银行/我是来开手机银行的/你帮我开个手机银行/帮我开个手机银行/我今天是来开手机银行的/我来开手机银行/具体怎么下载/</t>
+      <t>怎么进行注册啊/</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>在哪里下载手机银行啊/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/手机银行怎么下载的？/进店要下载APP吗/进店要下载软件吗/苏宁APP怎么下/据说要下载个APP才能进店吗/在哪里下载这个软件啊/怎么下载软件/这个软件怎么下载/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/怎么下载？/手机银行怎么下载的？/要到哪里下载？/在哪里下载手机银行啊/下载地址是啥？/给个下载地址吧/怎么装？/怎么装这个软件？/这个软件怎么装？/怎么下载手机银行的啊/怎么下载？/手机银行怎么下载的？/手机银行咋弄啊/手机银行哪里下载/我要下载手机银行/手机银行咋整/怎么下载手机银行？/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/怎么下载？/手机银行怎么下载的？/这个手机银行怎么操作/帮我下载一个手机银行/手机怎么下载手机银行/手机银行手机上怎么下载呀/怎么下载手机银行？/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/怎么下载？/app哪里下载/没看到app啊/app在哪里/怎么下载这个APP/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/怎么下载？/手机银行怎么下载的？/你们这APP怎么下啊？/先告诉我咋下啊！/在哪里下载？/你得告诉我怎么下吧/我想下载手机银行APP/你们这个APP在哪下呀？/怎么下载APP呢？/你知道怎么下载你们这个APP吗？/要怎么下载手机银行呢？/我想下载，要怎么办？/那我怎么下载你们这个软件呢？/软件在哪下？/要怎么下载这个手机银行呀？/怎么下载APP啊？/怎么下载手机银行？/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/我想下载手机银行/我想下载手机银行，你能教我么？/你能教教我怎么下载手机银行么？/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/下载什么软件/下载手机银行APP/去哪下载手机银行/下载手机银行吗/是下载手机银行吗/我还没有下载APP/我还没有下载软件/我手机里没有手机银行/我已经把APP卸载了/我需要再下载一下/你再把二维码给我看一下，我需要下载手机银行/我手机里已经没有这个APP了/这个手机银行要怎么操作/我要下载手机银行/扫完二维码就能下载吗/扫了就能下载了吗/验证后就可以下载吗/手机验证后就可以了吗/如何下载/验证好怎么下载/怎么下载/验证完怎么下载/验证后如何下载/扫码后如何下载/验证完就可以下载了吗/验证完如何下载/在哪下载啊/怎么下啊/app在哪/哪有app/没看到app啊/app呢/手机银行在哪/哪有手机银行/没看到手机银行啊/不会下载呢/下载怎么弄呀/你能教教我下载吗/在哪里下载呢/你能教教我在哪里下载吗/你能告诉我在哪里下载吗/你能教教我在哪里下载吗/你来教教我在哪里下载吧/你说说怎么下载/储储你会下载吗/机器人你会下载手机银行吗/手机银行怎么下载/下载手机银行怎么弄/下载手机银行你会吗/下载步骤是什么/有下载步骤吗/手机银行下载步骤/手机银行下载步骤你有吗/说说下载步骤/有下载方式吗/手机银行下载方式/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/我要下载APP/我要下载软件/邮储手机银行APP怎么下/要下载个APP/怎么下载邮储手机银行/在哪里下载这个软件啊/怎么下载软件/这个软件怎么下载/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/要到哪里下载/在哪里下载邮储手机银行啊/下载地址是啥/给个下载地址吧/怎么装/怎么装这个软件/这个软件怎么装/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/邮储手机银行怎么下载的/邮储手机银行咋弄啊/邮储手机银行哪里下载/我要下载邮储手机银行/邮储手机银行咋整/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/这个邮储手机银行手机怎么操作/帮我下载一个邮储手机银行/手机怎么下载邮储手机银行/邮储手机银行手机上怎么下载呀/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/邮储手机银行怎么下载的/app哪里下载/没看到app啊/app在哪里/怎么下载这个APP/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/你们这APP怎么下啊/先告诉我咋下啊！/在哪里下载/你得告诉我怎么下吧/我想下载邮储手机银行APP/你们这个APP在哪下呀/怎么下载APP呢/你知道怎么下载你们这个APP吗/要怎么下载邮储手机银行呢/我想下载，要怎么办/那我怎么下载你们这个软件呢/软件在哪下/要怎么下载这个邮储手机银行呀/怎么下载APP啊/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/我想下载邮储手机银行/我想下载邮储手机银行，你能教我么/你能教教我怎么下载邮储手机银行么/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/下载什么软件/下载邮储手机银行APP/去哪下载邮储手机银行/下载邮储手机银行吗/是下载邮储手机银行吗/我还没有下载APP/我还没有下载软件/我已经把软件卸载了/我手机里没有邮储手机银行/我已经把APP卸载了/我需要再下载一下/你再把二维码给我看一下，我需要下载邮储手机银行/我手机里已经没有这个APP了/早就删掉了/删掉了/已经删掉了/APP卸载了/下载这个邮储手机银行要怎么操作/我要下载邮储手机银行/在哪儿下载邮储手机银行/在哪里下载/在哪里下载邮储手机银行/</t>
+      <t>怎么登录或注册？/登录怎么弄？/怎么注册？/新用户怎么注册/怎么登录？/登录注册需要什么？/我怎么登录注册？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/APP怎么登录/软件怎么登/怎么登录或注册？/请问怎么登录/请问在哪里登录呢/软件怎么进去啊/怎么登录或注册？/登录怎么弄？/怎么注册？/怎么登录？/登录注册需要什么？/我怎么登录注册？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/还要注册啊，这个怎么办？/注册咋整/你能告诉我怎么登录吗/你能教我怎么登录注册吗/在哪里登录呀/登录的地方在哪？/是不是要先注册呀/点哪里注册登录呀/怎么找不到登录的地方/怎么登录或注册？/怎么登啊/注册怎么注册？/注册在哪注册的/怎么注册账号啊/在哪注册账号/怎么登录或注册？/登录怎么弄？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/接下来怎么登啊？/注册需要啥？/这个软件要怎么登录啊？/登录需要啥？/要怎么注册呢？/我怎么登录注册？在哪儿登录啊/在哪儿注册啊？/我想注册个账号，怎么办/我想登录我的账号，在哪儿登啊？/你能教我怎么注册么？/你能教我怎么登录么？/怎么登录或注册？/登录怎么弄？/怎么登录？/登录注册需要什么？/我怎么登录注册？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/如何登录/如何注册/怎么登录手机银行APP/怎么注册手机银行APP/怎么用呢/还没登录呢/还没登录成功呢/怎么登录呀/手机银行APP怎么登/怎么登录手机银行APP/怎么注册？/注册怎么弄？/新用户怎么注册/注册需要什么？/我怎么注册？/注册怎么办？/怎么才能完成注册呢？/注册邮储手机银行怎么办？/APP怎么注册/软件怎么注册/怎么注册？/请问怎么注册/请问在哪里注册呢/软件怎么进去啊/还要注册啊，这个怎么办？/注册咋整/你能告诉我怎么注册吗/你能教我怎么注册注册吗/在哪里注册呀/注册的地方在哪？/是不是要先注册呀/点哪里注册注册呀/怎么找不到注册的地方/在哪注册的/怎么注册账号啊/在哪注册账号/接下来怎么注册啊？/注册需要啥？/这个软件要怎么注册啊？/注册需要啥？/要怎么注册呢？/在哪儿注册啊/在哪儿注册啊？/我想注册个账号，怎么办/我想注册我的账号，在哪儿注册啊？/你能教我怎么注册么？/你能教我怎么注册么？/如何注册/如何注册/怎么注册邮储手机银行/怎么注册邮储手机银行/怎么用呢/还没注册呢/还没注册成功呢/怎么注册呀/邮储手机银行怎么注册/怎么注册邮储手机银行/如何注册//快教教我怎么注册/怎么才能注册啊/注册需要准备什么吗/注册需要什么东西/在哪里可以注册/我想注册怎么弄/告诉我怎么注册/问你一个问题，这个怎么注册/你知道怎么注册吗</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表情</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请打开邮储银行APP，点击右上角我的，再点击左下角线上注册，根据提示就可以完成注册和登录，最后要记得修改密码激活。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请打开邮储银行APP，点击右上角我的，再点击左下角线上注册，根据提示就可以完成注册和登录，最后要记得修改密码激活。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么激活</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮储</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>激活APP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请您到柜台办理激活。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么激活APP/APP怎么激活的啊/APP怎么激活/怎么激活的/这个APP是怎么激活的/你知道怎么激活这个APP的吗我想激活这个app/激活这个app该怎么办/怎么才能激活这个app/你知道这个app是怎么激活的吗/你能告诉我怎么激活这个app的吗/你可以跟我说说这个app的激活方法吗/告诉我这个app是怎么激活的吧/我要激活这个app/我要激活app/我是来激活app的/我来这里是激活app的/激活app/跟我讲一下app怎么激活的吧/跟我说一下这个app要怎样才能激活/app要怎样才能激活/怎样才能激活app/这个app要怎样才可以激活/你知道怎样才可以激活这个app吗/怎样才可以激活这个app/我想激活这个app/我来激活这个app的/激活app要怎么做/怎么做才能激活这个app/你知道怎样才能激活app吗/你可以告诉我怎样才可以激活这个app吗/你知道怎么做才能激活这个app吗/激活手机银行的app/我要激活手机银行app/我怎样才能激活手机银行app/激活手机银行app要怎么做/我是来激活手机银行app的/我想激活邮储手机银行app/我是来激活邮储手机银行app的/你知道怎样才能激活邮储手机银行app吗/邮储手机银行app是怎样激活的/你能告诉我怎样才能激活邮储手机银行的app吗/激活邮储手机银行app/我想激活邮储手机银行app/我是来激活邮储手机银行app的/怎么才能激活邮储手机银行app/你能告诉我怎样才能激活邮储手机银行app吗/你知道怎样激活邮储手机银行app的吗/邮储手机银行app是怎么激活的啊/激活邮储手机银行app怎么做/怎么才能激活邮储手机银行app/我来激活邮储手机银行的/激活邮储手机银行/怎么激活邮储手机银行/邮储手机银行怎么激活的/激活邮储手机银行怎么做/怎样激活邮储手机银行/我想激活邮储手机银行app</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -310,15 +309,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -628,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -663,17 +662,17 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -684,18 +683,18 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>21</v>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -707,18 +706,18 @@
         <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>22</v>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -727,28 +726,28 @@
         <v>9</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
+      <c r="F5" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">

--- a/update_data/data/bank_psbc/dialogue/引导流程.xlsx
+++ b/update_data/data/bank_psbc/dialogue/引导流程.xlsx
@@ -109,10 +109,6 @@
   </si>
   <si>
     <t>请您到柜台办理激活。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么激活APP/APP怎么激活的啊/APP怎么激活/怎么激活的/这个APP是怎么激活的/你知道怎么激活这个APP的吗我想激活这个app/激活这个app该怎么办/怎么才能激活这个app/你知道这个app是怎么激活的吗/你能告诉我怎么激活这个app的吗/你可以跟我说说这个app的激活方法吗/告诉我这个app是怎么激活的吧/我要激活这个app/我要激活app/我是来激活app的/我来这里是激活app的/激活app/跟我讲一下app怎么激活的吧/跟我说一下这个app要怎样才能激活/app要怎样才能激活/怎样才能激活app/这个app要怎样才可以激活/你知道怎样才可以激活这个app吗/怎样才可以激活这个app/我想激活这个app/我来激活这个app的/激活app要怎么做/怎么做才能激活这个app/你知道怎样才能激活app吗/你可以告诉我怎样才可以激活这个app吗/你知道怎么做才能激活这个app吗/激活手机银行的app/我要激活手机银行app/我怎样才能激活手机银行app/激活手机银行app要怎么做/我是来激活手机银行app的/我想激活邮储手机银行app/我是来激活邮储手机银行app的/你知道怎样才能激活邮储手机银行app吗/邮储手机银行app是怎样激活的/你能告诉我怎样才能激活邮储手机银行的app吗/激活邮储手机银行app/我想激活邮储手机银行app/我是来激活邮储手机银行app的/怎么才能激活邮储手机银行app/你能告诉我怎样才能激活邮储手机银行app吗/你知道怎样激活邮储手机银行app的吗/邮储手机银行app是怎么激活的啊/激活邮储手机银行app怎么做/怎么才能激活邮储手机银行app/我来激活邮储手机银行的/激活邮储手机银行/怎么激活邮储手机银行/邮储手机银行怎么激活的/激活邮储手机银行怎么做/怎样激活邮储手机银行/我想激活邮储手机银行app</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -175,6 +171,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>怎么登录或注册？/登录怎么弄？/怎么注册？/新用户怎么注册/怎么登录？/登录注册需要什么？/我怎么登录注册？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/APP怎么登录/软件怎么登/怎么登录或注册？/请问怎么登录/请问在哪里登录呢/软件怎么进去啊/怎么登录或注册？/登录怎么弄？/怎么注册？/怎么登录？/登录注册需要什么？/我怎么登录注册？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/还要注册啊，这个怎么办？/注册咋整/你能告诉我怎么登录吗/你能教我怎么登录注册吗/在哪里登录呀/登录的地方在哪？/是不是要先注册呀/点哪里注册登录呀/怎么找不到登录的地方/怎么登录或注册？/怎么登啊/注册怎么注册？/注册在哪注册的/怎么注册账号啊/在哪注册账号/怎么登录或注册？/登录怎么弄？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/接下来怎么登啊？/注册需要啥？/这个软件要怎么登录啊？/登录需要啥？/要怎么注册呢？/我怎么登录注册？在哪儿登录啊/在哪儿注册啊？/我想注册个账号，怎么办/我想登录我的账号，在哪儿登啊？/你能教我怎么注册么？/你能教我怎么登录么？/怎么登录或注册？/登录怎么弄？/怎么登录？/登录注册需要什么？/我怎么登录注册？/注册怎么办？/怎么才能完成注册呢？/登录手机银行APP怎么办？/如何登录/如何注册/怎么登录手机银行APP/怎么注册手机银行APP/怎么用呢/还没登录呢/还没登录成功呢/怎么登录呀/手机银行APP怎么登/怎么登录手机银行APP/怎么注册？/注册怎么弄？/新用户怎么注册/注册需要什么？/我怎么注册？/注册怎么办？/怎么才能完成注册呢？/注册邮储手机银行怎么办？/APP怎么注册/软件怎么注册/怎么注册？/请问怎么注册/请问在哪里注册呢/软件怎么进去啊/还要注册啊，这个怎么办？/注册咋整/你能告诉我怎么注册吗/你能教我怎么注册注册吗/在哪里注册呀/注册的地方在哪？/是不是要先注册呀/点哪里注册注册呀/怎么找不到注册的地方/在哪注册的/怎么注册账号啊/在哪注册账号/接下来怎么注册啊？/注册需要啥？/这个软件要怎么注册啊？/注册需要啥？/要怎么注册呢？/在哪儿注册啊/在哪儿注册啊？/我想注册个账号，怎么办/我想注册我的账号，在哪儿注册啊？/你能教我怎么注册么？/你能教我怎么注册么？/如何注册/如何注册/怎么注册邮储手机银行/怎么注册邮储手机银行/怎么用呢/还没注册呢/还没注册成功呢/怎么注册呀/邮储手机银行怎么注册/怎么注册邮储手机银行/如何注册//快教教我怎么注册/怎么才能注册啊/注册需要准备什么吗/注册需要什么东西/在哪里可以注册/我想注册怎么弄/告诉我怎么注册/问你一个问题，这个怎么注册/你知道怎么注册吗</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>怎么激活APP/APP怎么激活的啊/APP怎么激活/怎么激活的/这个APP是怎么激活的/你知道怎么激活这个APP的吗我想激活这个app/激活这个app该怎么办/怎么才能激活这个app/你知道这个app是怎么激活的吗/你能告诉我怎么激活这个app的吗/你可以跟我说说这个app的激活方法吗/告诉我这个app是怎么激活的吧/我要激活这个app/我要激活app/我是来激活app的/我来这里是激活app的/激活app/跟我讲一下app怎么激活的吧/跟我说一下这个app要怎样才能激活/app要怎样才能激活/怎样才能激活app/这个app要怎样才可以激活/你知道怎样才可以激活这个app吗/怎样才可以激活这个app/我想激活这个app/我来激活这个app的/激活app要怎么做/怎么做才能激活这个app/你知道怎样才能激活app吗/你可以告诉我怎样才可以激活这个app吗/你知道怎么做才能激活这个app吗/激活手机银行的app/我要激活手机银行app/我怎样才能激活手机银行app/激活手机银行app要怎么做/我是来激活手机银行app的/我想激活邮储手机银行app/我是来激活邮储手机银行app的/你知道怎样才能激活邮储手机银行app吗/邮储手机银行app是怎样激活的/你能告诉我怎样才能激活邮储手机银行的app吗/激活邮储手机银行app/我想激活邮储手机银行app/我是来激活邮储手机银行app的/怎么才能激活邮储手机银行app/你能告诉我怎样才能激活邮储手机银行app吗/你知道怎样激活邮储手机银行app的吗/邮储手机银行app是怎么激活的啊/激活邮储手机银行app怎么做/怎么才能激活邮储手机银行app/我来激活邮储手机银行的/激活邮储手机银行/怎么激活邮储手机银行/邮储手机银行怎么激活的/激活邮储手机银行怎么做/怎样激活邮储手机银行/我想激活邮储手机银行app/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怎么激活手机银行/怎么激活/如何激活/我要激活手机银行/我想激活手机银行/我手机银行还没有激活呢/手机银行不能转账，需要激活一下/激活手机银行/在哪激活手机银行/手机银行怎么激活/手机银行在哪激活/手机银行是到柜台激活吗/怎么激活手机银行</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -628,7 +641,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -683,7 +696,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -706,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
@@ -727,13 +740,13 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="162" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -747,7 +760,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">

--- a/update_data/data/bank_psbc/dialogue/引导流程.xlsx
+++ b/update_data/data/bank_psbc/dialogue/引导流程.xlsx
@@ -147,10 +147,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>怎么下载手机银行/下载手机银行在哪下载？/我要下载手机银行/你们手机银行怎么用？/我要用手机银行需要怎么做？/办手机银行业务/我来办个手机银行/手机银行具体怎么下载/在哪里下载手机银行啊/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/手机银行怎么下载的？/进店要下载APP吗/进店要下载软件吗/苏宁APP怎么下/据说要下载个APP才能进店吗/在哪里下载这个软件啊/怎么下载软件/这个软件怎么下载/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/怎么下载？/手机银行怎么下载的？/要到哪里下载？/在哪里下载手机银行啊/下载地址是啥？/给个下载地址吧/怎么装？/怎么装这个软件？/这个软件怎么装？/怎么下载手机银行的啊/怎么下载？/手机银行怎么下载的？/手机银行咋弄啊/手机银行哪里下载/我要下载手机银行/手机银行咋整/怎么下载手机银行？/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/怎么下载？/手机银行怎么下载的？/这个手机银行怎么操作/帮我下载一个手机银行/手机怎么下载手机银行/手机银行手机上怎么下载呀/怎么下载手机银行？/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/怎么下载？/app哪里下载/没看到app啊/app在哪里/怎么下载这个APP/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/怎么下载？/手机银行怎么下载的？/你们这APP怎么下啊？/先告诉我咋下啊！/在哪里下载？/你得告诉我怎么下吧/我想下载手机银行APP/你们这个APP在哪下呀？/怎么下载APP呢？/你知道怎么下载你们这个APP吗？/要怎么下载手机银行呢？/我想下载，要怎么办？/那我怎么下载你们这个软件呢？/软件在哪下？/要怎么下载这个手机银行呀？/怎么下载APP啊？/怎么下载手机银行？/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/我想下载手机银行/我想下载手机银行，你能教我么？/你能教教我怎么下载手机银行么？/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/下载什么软件/下载手机银行APP/去哪下载手机银行/下载手机银行吗/是下载手机银行吗/我还没有下载APP/我还没有下载软件/我手机里没有手机银行/我已经把APP卸载了/我需要再下载一下/我手机里已经没有这个APP了/这个手机银行要怎么操作/我要下载手机银行/扫了就能下载手机银行了吗/验证后就可以下载吗/手机验证后就可以了吗/如何下载/验证好怎么下载/怎么下载/验证完怎么下载/验证后如何下载/扫码后如何下载/验证完如何下载/在哪下载啊/怎么下啊/app在哪/哪有app/没看到app啊/app呢/哪有手机银行/没看到手机银行啊/下载怎么弄呀/在哪里下载呢/你能教教我在哪里下载吗/你能告诉我在哪里下载吗/你能教教我在哪里下载吗/你来教教我在哪里下载吧/你说说怎么下载/储储你会下载吗/机器人你会下载手机银行吗/手机银行怎么下载/下载手机银行怎么弄/下载手机银行你会吗/下载步骤是什么/有下载步骤吗/手机银行下载步骤/手机银行下载步骤你有吗/说说下载步骤/有下载方式吗/手机银行下载方式/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/我要下载APP/我要下载软件/邮储手机银行APP怎么下/要下载个APP/怎么下载邮储手机银行/在哪里下载这个软件啊/怎么下载软件/这个软件怎么下载/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/要到哪里下载/在哪里下载邮储手机银行啊/下载地址是啥/给个下载地址吧/怎么装/怎么装这个软件/这个软件怎么装/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/邮储手机银行怎么下载的/邮储手机银行咋弄啊/邮储手机银行哪里下载/我要下载邮储手机银行/邮储手机银行咋整/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/这个邮储手机银行手机怎么操作/帮我下载一个邮储手机银行/手机怎么下载邮储手机银行/邮储手机银行手机上怎么下载呀/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/邮储手机银行怎么下载的/app哪里下载/没看到app啊/app在哪里/怎么下载这个APP/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/你们这APP怎么下啊/先告诉我咋下啊！/在哪里下载/你得告诉我怎么下吧/我想下载邮储手机银行APP/你们这个APP在哪下呀/怎么下载APP呢/你知道怎么下载你们这个APP吗/要怎么下载邮储手机银行呢/我想下载，要怎么办/那我怎么下载你们这个软件呢/软件在哪下/要怎么下载这个邮储手机银行呀/怎么下载APP啊/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/我想下载邮储手机银行/我想下载邮储手机银行，你能教我么/你能教教我怎么下载邮储手机银行么/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/下载什么软件/下载邮储手机银行APP/去哪下载邮储手机银行/下载邮储手机银行吗/是下载邮储手机银行吗/我还没有下载APP/我还没有下载软件/我已经把软件卸载了/我手机里没有邮储手机银行/我需要再下载一下/我手机里已经没有这个APP了/下载这个邮储手机银行要怎么操作/我要下载邮储手机银行/在哪儿下载邮储手机银行/在哪里下载/在哪里下载邮储手机银行/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -190,6 +186,9 @@
       <t>怎么激活手机银行/怎么激活/如何激活/我要激活手机银行/我想激活手机银行/我手机银行还没有激活呢/手机银行不能转账，需要激活一下/激活手机银行/在哪激活手机银行/手机银行怎么激活/手机银行在哪激活/手机银行是到柜台激活吗/怎么激活手机银行</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么下载手机银行/下载手机银行在哪下载？/我要下载手机银行/你们手机银行怎么用？/我要用手机银行需要怎么做？/办手机银行业务/我来办个手机银行/手机银行具体怎么下载/在哪里下载手机银行啊/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/手机银行怎么下载的？/进店要下载APP吗/进店要下载软件吗/邮储APP怎么下/据说要下载个APP才能进店吗/在哪里下载这个软件啊/怎么下载软件/这个软件怎么下载/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/怎么下载？/手机银行怎么下载的？/要到哪里下载？/在哪里下载手机银行啊/下载地址是啥？/给个下载地址吧/怎么装？/怎么装这个软件？/这个软件怎么装？/怎么下载手机银行的啊/怎么下载？/手机银行怎么下载的？/手机银行咋弄啊/手机银行哪里下载/我要下载手机银行/手机银行咋整/怎么下载手机银行？/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/怎么下载？/手机银行怎么下载的？/这个手机银行怎么操作/帮我下载一个手机银行/手机怎么下载手机银行/手机银行手机上怎么下载呀/怎么下载手机银行？/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/怎么下载？/app哪里下载/没看到app啊/app在哪里/怎么下载这个APP/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/怎么下载？/手机银行怎么下载的？/你们这APP怎么下啊？/先告诉我咋下啊！/在哪里下载？/你得告诉我怎么下吧/我想下载手机银行APP/你们这个APP在哪下呀？/怎么下载APP呢？/你知道怎么下载你们这个APP吗？/要怎么下载手机银行呢？/我想下载，要怎么办？/那我怎么下载你们这个软件呢？/软件在哪下？/要怎么下载这个手机银行呀？/怎么下载APP啊？/怎么下载手机银行？/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/我想下载手机银行/我想下载手机银行，你能教我么？/你能教教我怎么下载手机银行么？/下载手机银行/手机银行怎么下载/怎么下载手机银行的啊/下载什么软件/下载手机银行APP/去哪下载手机银行/下载手机银行吗/是下载手机银行吗/我还没有下载APP/我还没有下载软件/我手机里没有手机银行/我已经把APP卸载了/我需要再下载一下/我手机里已经没有这个APP了/这个手机银行要怎么操作/我要下载手机银行/扫了就能下载手机银行了吗/验证后就可以下载吗/手机验证后就可以了吗/如何下载/验证好怎么下载/怎么下载/验证完怎么下载/验证后如何下载/扫码后如何下载/验证完如何下载/在哪下载啊/怎么下啊/app在哪/哪有app/没看到app啊/app呢/哪有手机银行/没看到手机银行啊/下载怎么弄呀/在哪里下载呢/你能教教我在哪里下载吗/你能告诉我在哪里下载吗/你能教教我在哪里下载吗/你来教教我在哪里下载吧/你说说怎么下载/储储你会下载吗/机器人你会下载手机银行吗/手机银行怎么下载/下载手机银行怎么弄/下载手机银行你会吗/下载步骤是什么/有下载步骤吗/手机银行下载步骤/手机银行下载步骤你有吗/说说下载步骤/有下载方式吗/手机银行下载方式/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/我要下载APP/我要下载软件/邮储手机银行APP怎么下/要下载个APP/怎么下载邮储手机银行/在哪里下载这个软件啊/怎么下载软件/这个软件怎么下载/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/要到哪里下载/在哪里下载邮储手机银行啊/下载地址是啥/给个下载地址吧/怎么装/怎么装这个软件/这个软件怎么装/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/邮储手机银行怎么下载的/邮储手机银行咋弄啊/邮储手机银行哪里下载/我要下载邮储手机银行/邮储手机银行咋整/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/这个邮储手机银行手机怎么操作/帮我下载一个邮储手机银行/手机怎么下载邮储手机银行/邮储手机银行手机上怎么下载呀/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/邮储手机银行怎么下载的/app哪里下载/没看到app啊/app在哪里/怎么下载这个APP/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/你们这APP怎么下啊/先告诉我咋下啊！/在哪里下载/你得告诉我怎么下吧/我想下载邮储手机银行APP/你们这个APP在哪下呀/怎么下载APP呢/你知道怎么下载你们这个APP吗/要怎么下载邮储手机银行呢/我想下载，要怎么办/那我怎么下载你们这个软件呢/软件在哪下/要怎么下载这个邮储手机银行呀/怎么下载APP啊/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/我想下载邮储手机银行/我想下载邮储手机银行，你能教我么/你能教教我怎么下载邮储手机银行么/怎么下载邮储手机银行/下载邮储手机银行/邮储手机银行怎么下载/怎么下载邮储手机银行的啊/怎么下载/邮储手机银行怎么下载的/下载什么软件/下载邮储手机银行APP/去哪下载邮储手机银行/下载邮储手机银行吗/是下载邮储手机银行吗/我还没有下载APP/我还没有下载软件/我已经把软件卸载了/我手机里没有邮储手机银行/我需要再下载一下/我手机里已经没有这个APP了/下载这个邮储手机银行要怎么操作/我要下载邮储手机银行/在哪儿下载邮储手机银行/在哪里下载/在哪里下载邮储手机银行/</t>
   </si>
 </sst>
 </file>
@@ -641,7 +640,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -696,7 +695,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -740,7 +739,7 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>17</v>
@@ -760,7 +759,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
